--- a/public/web_model/template.xlsx
+++ b/public/web_model/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\stage\CRISP\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\stage\CRISP\public\web_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA3FDDB8-6CCC-4575-A451-78C6E5B7272F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF93D41-119C-4E18-8B59-3BCE9CE576B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28EB074A-B6E7-4FF4-9E0E-6C4DA293FACA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>PATNR</t>
   </si>
@@ -66,12 +66,6 @@
   </si>
   <si>
     <t>Sex</t>
-  </si>
-  <si>
-    <t>Age_Early</t>
-  </si>
-  <si>
-    <t>Age_Late</t>
   </si>
   <si>
     <t>Pijn_acromioclaviaculair R</t>
@@ -797,15 +791,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1770448-8847-4091-BEBE-01B00610DEBD}">
-  <dimension ref="A1:DZ1"/>
+  <dimension ref="A1:DX1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="BF17" sqref="BF17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:DY1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1189,12 +1183,6 @@
       </c>
       <c r="DX1" t="s">
         <v>127</v>
-      </c>
-      <c r="DY1" t="s">
-        <v>128</v>
-      </c>
-      <c r="DZ1" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/public/web_model/template.xlsx
+++ b/public/web_model/template.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\stage\CRISP\public\web_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF93D41-119C-4E18-8B59-3BCE9CE576B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74CB01B-E0DE-44D7-A189-871B1BCE5EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28EB074A-B6E7-4FF4-9E0E-6C4DA293FACA}"/>
   </bookViews>
   <sheets>
-    <sheet name="blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Legend" sheetId="2" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="137">
   <si>
     <t>PATNR</t>
   </si>
@@ -420,16 +421,57 @@
   </si>
   <si>
     <t>Pijn_heup links</t>
+  </si>
+  <si>
+    <t>Kolom</t>
+  </si>
+  <si>
+    <t>Omschrijving</t>
+  </si>
+  <si>
+    <t>Type waarde</t>
+  </si>
+  <si>
+    <t>Alles</t>
+  </si>
+  <si>
+    <t>Nummer</t>
+  </si>
+  <si>
+    <t>0 of 1</t>
+  </si>
+  <si>
+    <t>M als Man, overige waardes zijn Vrouw</t>
+  </si>
+  <si>
+    <t>Opmerking</t>
+  </si>
+  <si>
+    <t>Zolang de kolom namen overeenkomen, maakt de volgorder niet uit.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -455,8 +497,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -790,11 +833,1072 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60817267-BD25-47AD-969D-C9A5ECED4CFF}">
+  <dimension ref="A1:F129"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>73</v>
+      </c>
+      <c r="C75" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>74</v>
+      </c>
+      <c r="C76" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+      <c r="C77" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+      <c r="C79" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>80</v>
+      </c>
+      <c r="C82" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>82</v>
+      </c>
+      <c r="C84" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>84</v>
+      </c>
+      <c r="C86" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>85</v>
+      </c>
+      <c r="C87" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>86</v>
+      </c>
+      <c r="C88" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>87</v>
+      </c>
+      <c r="C89" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>88</v>
+      </c>
+      <c r="C90" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>90</v>
+      </c>
+      <c r="C92" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>91</v>
+      </c>
+      <c r="C93" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>93</v>
+      </c>
+      <c r="C95" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>94</v>
+      </c>
+      <c r="C96" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+      <c r="C97" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>96</v>
+      </c>
+      <c r="C98" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>97</v>
+      </c>
+      <c r="C99" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>98</v>
+      </c>
+      <c r="C100" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>99</v>
+      </c>
+      <c r="C101" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>100</v>
+      </c>
+      <c r="C102" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>101</v>
+      </c>
+      <c r="C103" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>102</v>
+      </c>
+      <c r="C104" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>103</v>
+      </c>
+      <c r="C105" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>104</v>
+      </c>
+      <c r="C106" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>105</v>
+      </c>
+      <c r="C107" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>106</v>
+      </c>
+      <c r="C108" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>107</v>
+      </c>
+      <c r="C109" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>108</v>
+      </c>
+      <c r="C110" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>109</v>
+      </c>
+      <c r="C111" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>110</v>
+      </c>
+      <c r="C112" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>111</v>
+      </c>
+      <c r="C113" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>112</v>
+      </c>
+      <c r="C114" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>113</v>
+      </c>
+      <c r="C115" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>114</v>
+      </c>
+      <c r="C116" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>115</v>
+      </c>
+      <c r="C117" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>116</v>
+      </c>
+      <c r="C118" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>117</v>
+      </c>
+      <c r="C119" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>118</v>
+      </c>
+      <c r="C120" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>119</v>
+      </c>
+      <c r="C121" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>120</v>
+      </c>
+      <c r="C122" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>121</v>
+      </c>
+      <c r="C123" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>122</v>
+      </c>
+      <c r="C124" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>123</v>
+      </c>
+      <c r="C125" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>124</v>
+      </c>
+      <c r="C126" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>125</v>
+      </c>
+      <c r="C127" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>126</v>
+      </c>
+      <c r="C128" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>127</v>
+      </c>
+      <c r="C129" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1770448-8847-4091-BEBE-01B00610DEBD}">
   <dimension ref="A1:DX1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:DY1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
